--- a/medicine/Handicap/Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés/Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés.xlsx
+++ b/medicine/Handicap/Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés/Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la Déclaration annuelle obligatoire d’emploi des travailleurs handicapés, des mutilés de guerre et assimilés (DOETH) est une déclaration faite par les entreprises concernées par la Loi Handicap et l'article L5212-1 et suivants du Code du Travail. Remplie très souvent par le chargé de Mission Handicap s'il existe dans l'entreprise ou un membre du service des ressources humaines, elle concerne les entreprises de 20 salariés et plus et les administrations soumises à cette obligation[1] en application de la Loi Handicap.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la Déclaration annuelle obligatoire d’emploi des travailleurs handicapés, des mutilés de guerre et assimilés (DOETH) est une déclaration faite par les entreprises concernées par la Loi Handicap et l'article L5212-1 et suivants du Code du Travail. Remplie très souvent par le chargé de Mission Handicap s'il existe dans l'entreprise ou un membre du service des ressources humaines, elle concerne les entreprises de 20 salariés et plus et les administrations soumises à cette obligation en application de la Loi Handicap.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Qu'est-ce que la DOETH ?</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une déclaration qui est faite chaque année par les établissements privés et les établissements publics à caractère industriel et commercial de 20 salariés et plus. Elle permet aux établissements de remplir leur obligation d'emploi de travailleurs handicapés et de le déclarer à l'Association de gestion du fonds pour l'insertion professionnelle des personnes handicapées (AGEFIPH). Avant 2013, le destinataire était la DIRECCTE.
 La DOETH a connu en 2013 plusieurs évolutions majeures : fin de l'envoi des justificatifs, nouvelles annexes récapitulatives des achats au secteur protégé (EA/ESAT) ou des dépenses déductibles.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Cadre Juridique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La loi du 10 juillet 1987, oblige les établissements privés ou publics de 20 salariés ou plus d'employer l'équivalent de 6 % des personnes handicapées dans son effectif total. Dans le cas du non-respect de cette loi, l'établissement se voit dans l'obligation de verser une contribution pour discrimination envers les personnes handicapées. Cette contribution obligatoire est versée à l'AGEFIPH ou aux Fonds pour l'Insertion des Personnes Handicapées dans la Fonction, Publique FIPHFP et s'élève de 400 à 600 fois le SMIC horaire. La loi du 11 février 2005 renforce cette obligation en rajoutant la possibilité pour une entreprise de créer une Mission Handicap dont le but est de favoriser l'intégration des personnes handicapées au sein des entreprises.
 L'article L5212-1 et suivants du Code du Travail stipulent que tout établissement dispose d'un délai de 3 ans (délai déterminé par décret) pour respecter cette obligation. Si au bout de 3 ans, il n'est pas conforme à la loi, il sera majoré à 1500 fois le SMIC horaire. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +595,14 @@
           <t>Comment recevoir ou remplir sa DOETH</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Déclaration annuelle obligatoire d’emploi des travailleurs handicapés, des mutilés de guerre et assimilés (DOETH) est envoyé par le ministère de l'Emploi à la fin de chaque année civile.
 Cependant, d'autres moyens existent pour établir la DOETH tels que : 
 le remplissage d'un formulaire réglementaire disponible sur le site du Ministère du Travail ou sur le site de l'AGEFIPH,
-le remplissage de la DOETH en ligne à partir d'un site sécurisé (la date limite peut alors être fixée à une autre date), elle doit généralement être envoyée avant le 1er mars[2] ;
+le remplissage de la DOETH en ligne à partir d'un site sécurisé (la date limite peut alors être fixée à une autre date), elle doit généralement être envoyée avant le 1er mars ;
 par télé-paiement à la fin de la télé-déclaration si celle-ci prévoit une contribution à l'AGEFIPH.
 Afin de remplir la déclaration l'établissement doit justifier l'emploi de personnes handicapées.
 </t>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>L'envoi de la DOETH</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, les établissements de 20 salariés ou plus doivent envoyer leur déclaration à l'AGEFIPH.
 Un établissement qui entre dans le champ d'application de l'obligation de travailleurs handicapées a 3 ans pour être conforme à la loi. Cette dernière s'applique au moment de la création de l'établissement et au moment où il a employé 20 salariés ou plus. Pendant les 3 ans, il doit remplir dans sa déclaration son effectif d'assujettissement.
@@ -624,7 +644,7 @@
 les CDD, intermittents et saisonniers au prorata de leur présence dans l'année
 les contrats d'intérim (sur motif d'accroissement temporaire d'activité uniquement) au prorata de leur présence dans l'année
 Les contrats jeunes en entreprise (CJE) au prorata du temps de présence sur l'année
-Les salariés mis à disposition par une entreprise extérieure s'ils sont présents au 31/12, depuis au moins un an (période continue ou non)[3]
+Les salariés mis à disposition par une entreprise extérieure s'ils sont présents au 31/12, depuis au moins un an (période continue ou non)
 En revanche, les contrats de professionnalisation et d'apprentissage ne sont pas pris en compte. On peut également déduire des effectifs le prorata non travaillé des effectifs à temps partiel (par exemple, une personne travaillant toute l'année à 80 %, comptera pour 0,8).
 Les établissements ayant une autonomie de gestion par rapport à leur siège social doivent envoyer une déclaration séparée. Ils doivent juste envoyer la déclaration avec seulement leur effectif à l'AGEFIPH. Les établissements qui sont au contraire rattachés à leur siège social doivent intégrer leur effectif dans ceux de leur siège social.
 </t>
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Comment l'employeur peut-il s'acquitter de son obligation d'emploi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'employeur peut s'acquitter de son obligation d'emploi de travailleurs handicapées de trois manières :
 En embauchant des personnes handicapées à hauteur de 6 % de l'effectif total des salariés ;
@@ -673,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,7 +713,9 @@
           <t>Le versement d'une contribution à l'AGEFIPH</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Employer des personnes handicapées à hauteur de 6 % de l'effectif total est obligatoire pour un employeur. En versant une contribution à l'AGEFIPH pour chacun des bénéficiaires qu'il aurait dû employer,un employeur peut s'acquitter de cette obligation.
 La contribution de l'AGEFIPH se calcul selon plusieurs paramètres: 
@@ -712,7 +736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,7 +754,9 @@
           <t>Pénalités</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'établissement est pénalisé dans les cas suivants : 
 dans le cas où la Mission Handicap n'aurait réalisé aucun recrutement de personnel handicapés ni aucun effort en faveur du Handicap. Dans ce cas, il se voit dans l'obligation de payer sa contribution volontaire à l'AGEFIPH ou au FIPHFP soit : 6 % de son effectif total x le taux horaire du SMIC.
@@ -748,7 +774,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9claration_annuelle_obligatoire_d%27emploi_des_travailleurs_handicap%C3%A9s,_des_mutil%C3%A9s_de_guerre_et_assimil%C3%A9s</t>
+          <t>Déclaration_annuelle_obligatoire_d'emploi_des_travailleurs_handicapés,_des_mutilés_de_guerre_et_assimilés</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,7 +792,9 @@
           <t>Outils de calcul et de production de la DOETH</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calcul et la gestion de l'effectif d'assujettissement de l'entreprise, des unités bénéficiaires est d'une grande complexité et un enjeu financier de taille pour les entreprises. 
 Les Missions Handicaps des entreprises et administrations ont alors recours à des logiciels de SIRH spécialisés dans le suivi et la gestion de leur politique handicap et dans la production de la DOETH tels que POPEI Cockpit H, Opthimum, Ethik.
